--- a/master_research/results/30x31/30times_30x31.xlsx
+++ b/master_research/results/30x31/30times_30x31.xlsx
@@ -1,43 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/results/30x31/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_6A69D6BF87D05B1C4FBB23115941F8B25A15F48A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0A7BBAF-4934-434D-8E9C-82C83256B966}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>f_weight</t>
+  </si>
+  <si>
+    <t>IW</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>n_agent</t>
+  </si>
+  <si>
+    <t>heuristic</t>
+  </si>
+  <si>
+    <t>hash_structure</t>
+  </si>
+  <si>
+    <t>pre-pruning</t>
+  </si>
+  <si>
+    <t>pre-processing_time</t>
+  </si>
+  <si>
+    <t>running_time</t>
+  </si>
+  <si>
+    <t>expands</t>
+  </si>
+  <si>
+    <t>avg_max_paths</t>
+  </si>
+  <si>
+    <t>avg_sum_paths</t>
+  </si>
+  <si>
+    <t>minmax_std</t>
+  </si>
+  <si>
+    <t>minsum_std</t>
+  </si>
+  <si>
+    <t>agg_h</t>
+  </si>
+  <si>
+    <t>per</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,94 +126,62 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,96 +468,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>f_weight</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IW</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>n_agent</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>heuristic</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>hash_structure</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>pre-pruning</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pre-processing_time</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>running_time</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>expands</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>avg_max_paths</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>avg_sum_paths</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>minmax_std</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>minsum_std</t>
-        </is>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:16">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="b">
@@ -518,13 +541,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>agg_h</t>
-        </is>
+      <c r="F2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -532,33 +553,37 @@
       <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.3596098999987589</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2316.361715899999</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11799.03333333333</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.367</v>
-      </c>
-      <c r="M2" t="n">
-        <v>62.533</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.003</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="I2">
+        <v>0.35960989999875892</v>
+      </c>
+      <c r="J2">
+        <v>2316.3617158999991</v>
+      </c>
+      <c r="K2">
+        <v>11799.033333333329</v>
+      </c>
+      <c r="L2">
+        <v>24.367000000000001</v>
+      </c>
+      <c r="M2">
+        <v>62.533000000000001</v>
+      </c>
+      <c r="N2">
+        <v>5.0030000000000001</v>
+      </c>
+      <c r="O2">
         <v>11.741</v>
       </c>
+      <c r="P2">
+        <f>J2/30</f>
+        <v>77.212057196666635</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
       <c r="C3" t="b">
@@ -567,13 +592,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>agg_h</t>
-        </is>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -581,33 +604,37 @@
       <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.3897684999974445</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3268.301480399998</v>
-      </c>
-      <c r="K3" t="n">
-        <v>16744.93333333333</v>
-      </c>
-      <c r="L3" t="n">
-        <v>19.667</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="I3">
+        <v>0.38976849999744451</v>
+      </c>
+      <c r="J3">
+        <v>3268.3014803999981</v>
+      </c>
+      <c r="K3">
+        <v>16744.933333333331</v>
+      </c>
+      <c r="L3">
+        <v>19.667000000000002</v>
+      </c>
+      <c r="M3">
         <v>65.8</v>
       </c>
-      <c r="N3" t="n">
-        <v>3.228</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9.717000000000001</v>
+      <c r="N3">
+        <v>3.2280000000000002</v>
+      </c>
+      <c r="O3">
+        <v>9.7170000000000005</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P5" si="0">J3/30</f>
+        <v>108.94338267999994</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10</v>
       </c>
       <c r="C4" t="b">
@@ -616,13 +643,11 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>agg_h</t>
-        </is>
+      <c r="F4" t="s">
+        <v>14</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -630,29 +655,83 @@
       <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.3484180999948876</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>1912.162845700004</v>
       </c>
-      <c r="K4" t="n">
-        <v>20965.36666666666</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18.133</v>
-      </c>
-      <c r="M4" t="n">
-        <v>71.167</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K4">
+        <v>20965.366666666661</v>
+      </c>
+      <c r="L4">
+        <v>18.132999999999999</v>
+      </c>
+      <c r="M4">
+        <v>71.167000000000002</v>
+      </c>
+      <c r="N4">
+        <v>3.8530000000000002</v>
+      </c>
+      <c r="O4">
         <v>13.493</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>63.738761523333466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.3706363999954192</v>
+      </c>
+      <c r="J5">
+        <v>1870.4569251999999</v>
+      </c>
+      <c r="K5">
+        <v>24327.966666666671</v>
+      </c>
+      <c r="L5">
+        <v>16.8</v>
+      </c>
+      <c r="M5">
+        <v>74.266999999999996</v>
+      </c>
+      <c r="N5">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="O5">
+        <v>12.263999999999999</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>62.34856417333333</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>